--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uncommonStudent\Desktop\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD818444-5827-4DB9-851D-64FE2DA71F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB001530-96C9-44B6-AE79-B41D90C3E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B682B7B-97E0-48BE-84DD-2D27749716D8}"/>
   </bookViews>
@@ -54,41 +54,41 @@
     <t>Deductions</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>john@example.com</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>jane@example.com</t>
-  </si>
-  <si>
-    <t>Mike Tyson</t>
-  </si>
-  <si>
-    <t>mike@example.com</t>
-  </si>
-  <si>
-    <t>Sarah Connor</t>
-  </si>
-  <si>
-    <t>sarah@example.com</t>
-  </si>
-  <si>
-    <t>Bruce Wayne</t>
-  </si>
-  <si>
-    <t>bruce@example.com</t>
+    <t>Kanhohodza5369@gmail.com</t>
+  </si>
+  <si>
+    <t>tadiwanashesipambeni@gmail.com</t>
+  </si>
+  <si>
+    <t>malcolmmbazangi@gmail.com</t>
+  </si>
+  <si>
+    <t>tapiwaroy55@gmail.com</t>
+  </si>
+  <si>
+    <t>precioustendayi36@gmail.com</t>
+  </si>
+  <si>
+    <t>Tafadzwa   Kanhoodza</t>
+  </si>
+  <si>
+    <t>Tadiwanashe sipambeni</t>
+  </si>
+  <si>
+    <t>malcom mbazangi</t>
+  </si>
+  <si>
+    <t>Tapiwa gombarume</t>
+  </si>
+  <si>
+    <t>Precious Tendayi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,10 +130,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -133,8 +142,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,14 +471,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471590A8-52B5-4EEF-B3D3-53AD85826445}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -483,15 +505,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>5000</v>
@@ -508,10 +530,10 @@
         <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>4800</v>
@@ -523,15 +545,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>5200</v>
@@ -543,15 +565,15 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>5500</v>
@@ -563,15 +585,15 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="2">
         <v>6000</v>
@@ -584,6 +606,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4AF24BD8-1A9A-48EF-93C1-C73761E1736C}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5748C027-5C05-4B13-B183-9B5F9B0AA704}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{5874C7FA-8F9A-4099-8E81-C1DBE6C99A11}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{07B944E6-3332-4E39-9E90-B14DDF1B402C}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{98764927-0F79-41BE-8246-86E175323E5E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uncommonStudent\Desktop\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB001530-96C9-44B6-AE79-B41D90C3E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063AF232-566E-4BEE-A811-6D55BD1573DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3B682B7B-97E0-48BE-84DD-2D27749716D8}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -145,15 +145,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,17 +461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471590A8-52B5-4EEF-B3D3-53AD85826445}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
@@ -509,7 +501,7 @@
       <c r="A2" s="2">
         <v>1001</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -552,7 +544,7 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2">
@@ -572,7 +564,7 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2">
@@ -592,7 +584,7 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2">
@@ -604,6 +596,13 @@
       <c r="F6" s="2">
         <v>900</v>
       </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
